--- a/SEMANAL DEMANDA ELÉCTRICA PARA CONCENTRADO SIN.xlsx
+++ b/SEMANAL DEMANDA ELÉCTRICA PARA CONCENTRADO SIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ERIC\Desktop\Jupyter\Untitled Folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ERIC\Desktop\Jupyter\Forecast_Demand\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -881,7 +881,7 @@
   <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SEMANAL DEMANDA ELÉCTRICA PARA CONCENTRADO SIN.xlsx
+++ b/SEMANAL DEMANDA ELÉCTRICA PARA CONCENTRADO SIN.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ERIC\Desktop\Jupyter\Forecast_Demand\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Operaciones F\Forecast_Demand\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D0F8F8-24C6-4148-A5E7-235507AA3CCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="4" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -543,7 +545,7 @@
     <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
@@ -877,11 +879,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1028,10 +1030,6 @@
         <f>B10-600</f>
         <v>30818.770636363635</v>
       </c>
-      <c r="D10" s="2">
-        <f>-0.00004*(A10)^6 + 0.0073*(A10)^5 - 0.4837*(A10)^4 + 14.285*(A10)^3 - 189.47*(A10)^2 + 1349.8*(A10) + 26020</f>
-        <v>30471.139359999997</v>
-      </c>
     </row>
     <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -1044,10 +1042,6 @@
         <f>B11-600</f>
         <v>30415.287916666661</v>
       </c>
-      <c r="D11" s="2">
-        <f t="shared" ref="D11:D54" si="1">-0.00004*(A11)^6 + 0.0073*(A11)^5 - 0.4837*(A11)^4 + 14.285*(A11)^3 - 189.47*(A11)^2 + 1349.8*(A11) + 26020</f>
-        <v>30709</v>
-      </c>
     </row>
     <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -1059,10 +1053,6 @@
       <c r="C12" s="2">
         <v>33790.55947368421</v>
       </c>
-      <c r="D12" s="2">
-        <f t="shared" si="1"/>
-        <v>30978.223160000001</v>
-      </c>
     </row>
     <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -1074,10 +1064,6 @@
       <c r="C13" s="2">
         <v>30263.244172185427</v>
       </c>
-      <c r="D13" s="2">
-        <f t="shared" si="1"/>
-        <v>31285.431039999996</v>
-      </c>
     </row>
     <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -1089,10 +1075,6 @@
       <c r="C14" s="2">
         <v>31602.558750000004</v>
       </c>
-      <c r="D14" s="2">
-        <f t="shared" si="1"/>
-        <v>31633.525839999998</v>
-      </c>
     </row>
     <row r="15" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -1104,10 +1086,6 @@
       <c r="C15" s="2">
         <v>32858.887254901965</v>
       </c>
-      <c r="D15" s="2">
-        <f t="shared" si="1"/>
-        <v>32022.234559999997</v>
-      </c>
     </row>
     <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -1119,12 +1097,8 @@
       <c r="C16" s="2">
         <v>33281.0694890511</v>
       </c>
-      <c r="D16" s="2">
-        <f t="shared" si="1"/>
-        <v>32448.625</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1134,12 +1108,8 @@
       <c r="C17" s="2">
         <v>31665.497440476192</v>
       </c>
-      <c r="D17" s="2">
-        <f t="shared" si="1"/>
-        <v>32907.592959999994</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1149,12 +1119,8 @@
       <c r="C18" s="2">
         <v>32303.283571428576</v>
       </c>
-      <c r="D18" s="2">
-        <f t="shared" si="1"/>
-        <v>33392.320639999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1164,12 +1130,8 @@
       <c r="C19" s="2">
         <v>33905.871845238107</v>
       </c>
-      <c r="D19" s="2">
-        <f t="shared" si="1"/>
-        <v>33894.706239999985</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1179,12 +1141,8 @@
       <c r="C20" s="2">
         <v>35151.483053892218</v>
       </c>
-      <c r="D20" s="2">
-        <f t="shared" si="1"/>
-        <v>34405.764760000005</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1194,12 +1152,8 @@
       <c r="C21" s="2">
         <v>34692.49314049587</v>
       </c>
-      <c r="D21" s="2">
-        <f t="shared" si="1"/>
-        <v>34916</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1209,12 +1163,8 @@
       <c r="C22" s="2">
         <v>35223.04188235294</v>
       </c>
-      <c r="D22" s="2">
-        <f t="shared" si="1"/>
-        <v>35415.747759999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1225,12 +1175,8 @@
         <f>B23-600</f>
         <v>36954.359867549661</v>
       </c>
-      <c r="D23" s="2">
-        <f t="shared" si="1"/>
-        <v>35895.490239999992</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1238,15 +1184,11 @@
         <v>37649.953630952383</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" ref="C24:C27" si="2">B24-600</f>
+        <f t="shared" ref="C24:C27" si="1">B24-600</f>
         <v>37049.953630952383</v>
       </c>
-      <c r="D24" s="2">
-        <f t="shared" si="1"/>
-        <v>36346.141639999973</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1254,15 +1196,11 @@
         <v>36606.543825503359</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>36006.543825503359</v>
       </c>
-      <c r="D25" s="2">
-        <f t="shared" si="1"/>
-        <v>36759.304959999979</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1270,15 +1208,11 @@
         <v>36912.786241134752</v>
       </c>
       <c r="C26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>36312.786241134752</v>
       </c>
-      <c r="D26" s="2">
-        <f t="shared" si="1"/>
-        <v>37127.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1286,15 +1220,11 @@
         <v>37319.658915662658</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>36719.658915662658</v>
       </c>
-      <c r="D27" s="2">
-        <f t="shared" si="1"/>
-        <v>37444.362559999987</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1304,12 +1234,8 @@
       <c r="C28" s="2">
         <v>37909.966893203884</v>
       </c>
-      <c r="D28" s="2">
-        <f t="shared" si="1"/>
-        <v>37704.814840000028</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1319,12 +1245,8 @@
       <c r="C29" s="2">
         <v>37511.924166666664</v>
       </c>
-      <c r="D29" s="2">
-        <f t="shared" si="1"/>
-        <v>37905.207039999957</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1334,12 +1256,8 @@
       <c r="C30" s="2">
         <v>37465.862202380951</v>
       </c>
-      <c r="D30" s="2">
-        <f t="shared" si="1"/>
-        <v>38043.430160000004</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1349,12 +1267,8 @@
       <c r="C31" s="2">
         <v>36522.45640243902</v>
       </c>
-      <c r="D31" s="2">
-        <f t="shared" si="1"/>
-        <v>38119</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1364,12 +1278,8 @@
       <c r="C32" s="2">
         <v>36526.541176470579</v>
       </c>
-      <c r="D32" s="2">
-        <f t="shared" si="1"/>
-        <v>38133.112360000006</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1379,12 +1289,8 @@
       <c r="C33" s="2">
         <v>38668.385671641787</v>
       </c>
-      <c r="D33" s="2">
-        <f t="shared" si="1"/>
-        <v>38088.66944000002</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1394,12 +1300,8 @@
       <c r="C34" s="2">
         <v>38137.020357142857</v>
       </c>
-      <c r="D34" s="2">
-        <f t="shared" si="1"/>
-        <v>37990.277439999925</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1409,12 +1311,8 @@
       <c r="C35" s="2">
         <v>38386.508452380956</v>
       </c>
-      <c r="D35" s="2">
-        <f t="shared" si="1"/>
-        <v>37844.215359999958</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1424,12 +1322,8 @@
       <c r="C36" s="2">
         <v>37721.000059523809</v>
       </c>
-      <c r="D36" s="2">
-        <f t="shared" si="1"/>
-        <v>37658.375</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1439,12 +1333,8 @@
       <c r="C37" s="2">
         <v>35850.776428571422</v>
       </c>
-      <c r="D37" s="2">
-        <f t="shared" si="1"/>
-        <v>37442.172159999907</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1454,12 +1344,8 @@
       <c r="C38" s="2">
         <v>36260.672378048781</v>
       </c>
-      <c r="D38" s="2">
-        <f t="shared" si="1"/>
-        <v>37206.429039999981</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1469,12 +1355,8 @@
       <c r="C39" s="2">
         <v>35916.820636363635</v>
       </c>
-      <c r="D39" s="2">
-        <f t="shared" si="1"/>
-        <v>36963.227839999985</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1484,12 +1366,8 @@
       <c r="C40" s="2">
         <v>35859.026753246748</v>
       </c>
-      <c r="D40" s="2">
-        <f t="shared" si="1"/>
-        <v>36725.735559999986</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1499,12 +1377,8 @@
       <c r="C41" s="2">
         <v>34450.773416149066</v>
       </c>
-      <c r="D41" s="2">
-        <f t="shared" si="1"/>
-        <v>36508</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1514,12 +1388,8 @@
       <c r="C42" s="2">
         <v>34959.724230769236</v>
       </c>
-      <c r="D42" s="2">
-        <f t="shared" si="1"/>
-        <v>36324.716960000114</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1529,12 +1399,8 @@
       <c r="C43" s="2">
         <v>33379.054464285713</v>
       </c>
-      <c r="D43" s="2">
-        <f t="shared" si="1"/>
-        <v>36190.968639999941</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1544,12 +1410,8 @@
       <c r="C44" s="2">
         <v>33218.86871621621</v>
       </c>
-      <c r="D44" s="2">
-        <f t="shared" si="1"/>
-        <v>36121.933240000079</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1559,12 +1421,8 @@
       <c r="C45" s="2">
         <v>27308.491721854301</v>
       </c>
-      <c r="D45" s="2">
-        <f t="shared" si="1"/>
-        <v>36132.565759999896</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1574,12 +1432,8 @@
       <c r="C46" s="2">
         <v>31605.441698113205</v>
       </c>
-      <c r="D46" s="2">
-        <f t="shared" si="1"/>
-        <v>36237.25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1589,12 +1443,8 @@
       <c r="C47" s="2">
         <v>31525.618863636362</v>
       </c>
-      <c r="D47" s="2">
-        <f t="shared" si="1"/>
-        <v>36449.421759999539</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1603,10 +1453,6 @@
       </c>
       <c r="C48" s="2">
         <v>31351.463168316834</v>
-      </c>
-      <c r="D48" s="2">
-        <f t="shared" si="1"/>
-        <v>36781.163239999813</v>
       </c>
     </row>
     <row r="49" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1619,10 +1465,6 @@
       <c r="C49" s="2">
         <v>31404.890654761908</v>
       </c>
-      <c r="D49" s="2">
-        <f t="shared" si="1"/>
-        <v>37242.768639999646</v>
-      </c>
     </row>
     <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
@@ -1634,10 +1476,6 @@
       <c r="C50" s="2">
         <v>30978.619702380958</v>
       </c>
-      <c r="D50" s="2">
-        <f t="shared" si="1"/>
-        <v>37842.280959999931</v>
-      </c>
     </row>
     <row r="51" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
@@ -1649,10 +1487,6 @@
       <c r="C51" s="2">
         <v>30715.428650306749</v>
       </c>
-      <c r="D51" s="2">
-        <f t="shared" si="1"/>
-        <v>38585</v>
-      </c>
     </row>
     <row r="52" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
@@ -1664,10 +1498,6 @@
       <c r="C52" s="2">
         <v>31415.204887218049</v>
       </c>
-      <c r="D52" s="2">
-        <f t="shared" si="1"/>
-        <v>39472.961559999923</v>
-      </c>
     </row>
     <row r="53" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
@@ -1679,10 +1509,6 @@
       <c r="C53" s="2">
         <v>26880.13285714286</v>
       </c>
-      <c r="D53" s="2">
-        <f t="shared" si="1"/>
-        <v>40504.387839999996</v>
-      </c>
     </row>
     <row r="54" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
@@ -1694,10 +1520,6 @@
       <c r="C54" s="2">
         <v>26880.951388888883</v>
       </c>
-      <c r="D54" s="2">
-        <f t="shared" si="1"/>
-        <v>41673.109039999632</v>
-      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
@@ -1726,6 +1548,291 @@
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="D62" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB16249A-3202-493C-B1DB-1D8DBA8BD5C4}">
+  <dimension ref="A1:A45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2">
+        <f>-0.00004*(Hoja2!A10)^6 + 0.0073*(Hoja2!A10)^5 - 0.4837*(Hoja2!A10)^4 + 14.285*(Hoja2!A10)^3 - 189.47*(Hoja2!A10)^2 + 1349.8*(Hoja2!A10) + 26020</f>
+        <v>30471.139359999997</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <f>-0.00004*(Hoja2!A11)^6 + 0.0073*(Hoja2!A11)^5 - 0.4837*(Hoja2!A11)^4 + 14.285*(Hoja2!A11)^3 - 189.47*(Hoja2!A11)^2 + 1349.8*(Hoja2!A11) + 26020</f>
+        <v>30709</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <f>-0.00004*(Hoja2!A12)^6 + 0.0073*(Hoja2!A12)^5 - 0.4837*(Hoja2!A12)^4 + 14.285*(Hoja2!A12)^3 - 189.47*(Hoja2!A12)^2 + 1349.8*(Hoja2!A12) + 26020</f>
+        <v>30978.223160000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <f>-0.00004*(Hoja2!A13)^6 + 0.0073*(Hoja2!A13)^5 - 0.4837*(Hoja2!A13)^4 + 14.285*(Hoja2!A13)^3 - 189.47*(Hoja2!A13)^2 + 1349.8*(Hoja2!A13) + 26020</f>
+        <v>31285.431039999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <f>-0.00004*(Hoja2!A14)^6 + 0.0073*(Hoja2!A14)^5 - 0.4837*(Hoja2!A14)^4 + 14.285*(Hoja2!A14)^3 - 189.47*(Hoja2!A14)^2 + 1349.8*(Hoja2!A14) + 26020</f>
+        <v>31633.525839999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <f>-0.00004*(Hoja2!A15)^6 + 0.0073*(Hoja2!A15)^5 - 0.4837*(Hoja2!A15)^4 + 14.285*(Hoja2!A15)^3 - 189.47*(Hoja2!A15)^2 + 1349.8*(Hoja2!A15) + 26020</f>
+        <v>32022.234559999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <f>-0.00004*(Hoja2!A16)^6 + 0.0073*(Hoja2!A16)^5 - 0.4837*(Hoja2!A16)^4 + 14.285*(Hoja2!A16)^3 - 189.47*(Hoja2!A16)^2 + 1349.8*(Hoja2!A16) + 26020</f>
+        <v>32448.625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <f>-0.00004*(Hoja2!A17)^6 + 0.0073*(Hoja2!A17)^5 - 0.4837*(Hoja2!A17)^4 + 14.285*(Hoja2!A17)^3 - 189.47*(Hoja2!A17)^2 + 1349.8*(Hoja2!A17) + 26020</f>
+        <v>32907.592959999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <f>-0.00004*(Hoja2!A18)^6 + 0.0073*(Hoja2!A18)^5 - 0.4837*(Hoja2!A18)^4 + 14.285*(Hoja2!A18)^3 - 189.47*(Hoja2!A18)^2 + 1349.8*(Hoja2!A18) + 26020</f>
+        <v>33392.320639999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <f>-0.00004*(Hoja2!A19)^6 + 0.0073*(Hoja2!A19)^5 - 0.4837*(Hoja2!A19)^4 + 14.285*(Hoja2!A19)^3 - 189.47*(Hoja2!A19)^2 + 1349.8*(Hoja2!A19) + 26020</f>
+        <v>33894.706239999985</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <f>-0.00004*(Hoja2!A20)^6 + 0.0073*(Hoja2!A20)^5 - 0.4837*(Hoja2!A20)^4 + 14.285*(Hoja2!A20)^3 - 189.47*(Hoja2!A20)^2 + 1349.8*(Hoja2!A20) + 26020</f>
+        <v>34405.764760000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <f>-0.00004*(Hoja2!A21)^6 + 0.0073*(Hoja2!A21)^5 - 0.4837*(Hoja2!A21)^4 + 14.285*(Hoja2!A21)^3 - 189.47*(Hoja2!A21)^2 + 1349.8*(Hoja2!A21) + 26020</f>
+        <v>34916</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <f>-0.00004*(Hoja2!A22)^6 + 0.0073*(Hoja2!A22)^5 - 0.4837*(Hoja2!A22)^4 + 14.285*(Hoja2!A22)^3 - 189.47*(Hoja2!A22)^2 + 1349.8*(Hoja2!A22) + 26020</f>
+        <v>35415.747759999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <f>-0.00004*(Hoja2!A23)^6 + 0.0073*(Hoja2!A23)^5 - 0.4837*(Hoja2!A23)^4 + 14.285*(Hoja2!A23)^3 - 189.47*(Hoja2!A23)^2 + 1349.8*(Hoja2!A23) + 26020</f>
+        <v>35895.490239999992</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <f>-0.00004*(Hoja2!A24)^6 + 0.0073*(Hoja2!A24)^5 - 0.4837*(Hoja2!A24)^4 + 14.285*(Hoja2!A24)^3 - 189.47*(Hoja2!A24)^2 + 1349.8*(Hoja2!A24) + 26020</f>
+        <v>36346.141639999973</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <f>-0.00004*(Hoja2!A25)^6 + 0.0073*(Hoja2!A25)^5 - 0.4837*(Hoja2!A25)^4 + 14.285*(Hoja2!A25)^3 - 189.47*(Hoja2!A25)^2 + 1349.8*(Hoja2!A25) + 26020</f>
+        <v>36759.304959999979</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <f>-0.00004*(Hoja2!A26)^6 + 0.0073*(Hoja2!A26)^5 - 0.4837*(Hoja2!A26)^4 + 14.285*(Hoja2!A26)^3 - 189.47*(Hoja2!A26)^2 + 1349.8*(Hoja2!A26) + 26020</f>
+        <v>37127.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <f>-0.00004*(Hoja2!A27)^6 + 0.0073*(Hoja2!A27)^5 - 0.4837*(Hoja2!A27)^4 + 14.285*(Hoja2!A27)^3 - 189.47*(Hoja2!A27)^2 + 1349.8*(Hoja2!A27) + 26020</f>
+        <v>37444.362559999987</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <f>-0.00004*(Hoja2!A28)^6 + 0.0073*(Hoja2!A28)^5 - 0.4837*(Hoja2!A28)^4 + 14.285*(Hoja2!A28)^3 - 189.47*(Hoja2!A28)^2 + 1349.8*(Hoja2!A28) + 26020</f>
+        <v>37704.814840000028</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <f>-0.00004*(Hoja2!A29)^6 + 0.0073*(Hoja2!A29)^5 - 0.4837*(Hoja2!A29)^4 + 14.285*(Hoja2!A29)^3 - 189.47*(Hoja2!A29)^2 + 1349.8*(Hoja2!A29) + 26020</f>
+        <v>37905.207039999957</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <f>-0.00004*(Hoja2!A30)^6 + 0.0073*(Hoja2!A30)^5 - 0.4837*(Hoja2!A30)^4 + 14.285*(Hoja2!A30)^3 - 189.47*(Hoja2!A30)^2 + 1349.8*(Hoja2!A30) + 26020</f>
+        <v>38043.430160000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <f>-0.00004*(Hoja2!A31)^6 + 0.0073*(Hoja2!A31)^5 - 0.4837*(Hoja2!A31)^4 + 14.285*(Hoja2!A31)^3 - 189.47*(Hoja2!A31)^2 + 1349.8*(Hoja2!A31) + 26020</f>
+        <v>38119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <f>-0.00004*(Hoja2!A32)^6 + 0.0073*(Hoja2!A32)^5 - 0.4837*(Hoja2!A32)^4 + 14.285*(Hoja2!A32)^3 - 189.47*(Hoja2!A32)^2 + 1349.8*(Hoja2!A32) + 26020</f>
+        <v>38133.112360000006</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <f>-0.00004*(Hoja2!A33)^6 + 0.0073*(Hoja2!A33)^5 - 0.4837*(Hoja2!A33)^4 + 14.285*(Hoja2!A33)^3 - 189.47*(Hoja2!A33)^2 + 1349.8*(Hoja2!A33) + 26020</f>
+        <v>38088.66944000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <f>-0.00004*(Hoja2!A34)^6 + 0.0073*(Hoja2!A34)^5 - 0.4837*(Hoja2!A34)^4 + 14.285*(Hoja2!A34)^3 - 189.47*(Hoja2!A34)^2 + 1349.8*(Hoja2!A34) + 26020</f>
+        <v>37990.277439999925</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <f>-0.00004*(Hoja2!A35)^6 + 0.0073*(Hoja2!A35)^5 - 0.4837*(Hoja2!A35)^4 + 14.285*(Hoja2!A35)^3 - 189.47*(Hoja2!A35)^2 + 1349.8*(Hoja2!A35) + 26020</f>
+        <v>37844.215359999958</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <f>-0.00004*(Hoja2!A36)^6 + 0.0073*(Hoja2!A36)^5 - 0.4837*(Hoja2!A36)^4 + 14.285*(Hoja2!A36)^3 - 189.47*(Hoja2!A36)^2 + 1349.8*(Hoja2!A36) + 26020</f>
+        <v>37658.375</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <f>-0.00004*(Hoja2!A37)^6 + 0.0073*(Hoja2!A37)^5 - 0.4837*(Hoja2!A37)^4 + 14.285*(Hoja2!A37)^3 - 189.47*(Hoja2!A37)^2 + 1349.8*(Hoja2!A37) + 26020</f>
+        <v>37442.172159999907</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <f>-0.00004*(Hoja2!A38)^6 + 0.0073*(Hoja2!A38)^5 - 0.4837*(Hoja2!A38)^4 + 14.285*(Hoja2!A38)^3 - 189.47*(Hoja2!A38)^2 + 1349.8*(Hoja2!A38) + 26020</f>
+        <v>37206.429039999981</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <f>-0.00004*(Hoja2!A39)^6 + 0.0073*(Hoja2!A39)^5 - 0.4837*(Hoja2!A39)^4 + 14.285*(Hoja2!A39)^3 - 189.47*(Hoja2!A39)^2 + 1349.8*(Hoja2!A39) + 26020</f>
+        <v>36963.227839999985</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <f>-0.00004*(Hoja2!A40)^6 + 0.0073*(Hoja2!A40)^5 - 0.4837*(Hoja2!A40)^4 + 14.285*(Hoja2!A40)^3 - 189.47*(Hoja2!A40)^2 + 1349.8*(Hoja2!A40) + 26020</f>
+        <v>36725.735559999986</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <f>-0.00004*(Hoja2!A41)^6 + 0.0073*(Hoja2!A41)^5 - 0.4837*(Hoja2!A41)^4 + 14.285*(Hoja2!A41)^3 - 189.47*(Hoja2!A41)^2 + 1349.8*(Hoja2!A41) + 26020</f>
+        <v>36508</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <f>-0.00004*(Hoja2!A42)^6 + 0.0073*(Hoja2!A42)^5 - 0.4837*(Hoja2!A42)^4 + 14.285*(Hoja2!A42)^3 - 189.47*(Hoja2!A42)^2 + 1349.8*(Hoja2!A42) + 26020</f>
+        <v>36324.716960000114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <f>-0.00004*(Hoja2!A43)^6 + 0.0073*(Hoja2!A43)^5 - 0.4837*(Hoja2!A43)^4 + 14.285*(Hoja2!A43)^3 - 189.47*(Hoja2!A43)^2 + 1349.8*(Hoja2!A43) + 26020</f>
+        <v>36190.968639999941</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <f>-0.00004*(Hoja2!A44)^6 + 0.0073*(Hoja2!A44)^5 - 0.4837*(Hoja2!A44)^4 + 14.285*(Hoja2!A44)^3 - 189.47*(Hoja2!A44)^2 + 1349.8*(Hoja2!A44) + 26020</f>
+        <v>36121.933240000079</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <f>-0.00004*(Hoja2!A45)^6 + 0.0073*(Hoja2!A45)^5 - 0.4837*(Hoja2!A45)^4 + 14.285*(Hoja2!A45)^3 - 189.47*(Hoja2!A45)^2 + 1349.8*(Hoja2!A45) + 26020</f>
+        <v>36132.565759999896</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <f>-0.00004*(Hoja2!A46)^6 + 0.0073*(Hoja2!A46)^5 - 0.4837*(Hoja2!A46)^4 + 14.285*(Hoja2!A46)^3 - 189.47*(Hoja2!A46)^2 + 1349.8*(Hoja2!A46) + 26020</f>
+        <v>36237.25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <f>-0.00004*(Hoja2!A47)^6 + 0.0073*(Hoja2!A47)^5 - 0.4837*(Hoja2!A47)^4 + 14.285*(Hoja2!A47)^3 - 189.47*(Hoja2!A47)^2 + 1349.8*(Hoja2!A47) + 26020</f>
+        <v>36449.421759999539</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <f>-0.00004*(Hoja2!A48)^6 + 0.0073*(Hoja2!A48)^5 - 0.4837*(Hoja2!A48)^4 + 14.285*(Hoja2!A48)^3 - 189.47*(Hoja2!A48)^2 + 1349.8*(Hoja2!A48) + 26020</f>
+        <v>36781.163239999813</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <f>-0.00004*(Hoja2!A49)^6 + 0.0073*(Hoja2!A49)^5 - 0.4837*(Hoja2!A49)^4 + 14.285*(Hoja2!A49)^3 - 189.47*(Hoja2!A49)^2 + 1349.8*(Hoja2!A49) + 26020</f>
+        <v>37242.768639999646</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <f>-0.00004*(Hoja2!A50)^6 + 0.0073*(Hoja2!A50)^5 - 0.4837*(Hoja2!A50)^4 + 14.285*(Hoja2!A50)^3 - 189.47*(Hoja2!A50)^2 + 1349.8*(Hoja2!A50) + 26020</f>
+        <v>37842.280959999931</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <f>-0.00004*(Hoja2!A51)^6 + 0.0073*(Hoja2!A51)^5 - 0.4837*(Hoja2!A51)^4 + 14.285*(Hoja2!A51)^3 - 189.47*(Hoja2!A51)^2 + 1349.8*(Hoja2!A51) + 26020</f>
+        <v>38585</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <f>-0.00004*(Hoja2!A52)^6 + 0.0073*(Hoja2!A52)^5 - 0.4837*(Hoja2!A52)^4 + 14.285*(Hoja2!A52)^3 - 189.47*(Hoja2!A52)^2 + 1349.8*(Hoja2!A52) + 26020</f>
+        <v>39472.961559999923</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <f>-0.00004*(Hoja2!A53)^6 + 0.0073*(Hoja2!A53)^5 - 0.4837*(Hoja2!A53)^4 + 14.285*(Hoja2!A53)^3 - 189.47*(Hoja2!A53)^2 + 1349.8*(Hoja2!A53) + 26020</f>
+        <v>40504.387839999996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <f>-0.00004*(Hoja2!A54)^6 + 0.0073*(Hoja2!A54)^5 - 0.4837*(Hoja2!A54)^4 + 14.285*(Hoja2!A54)^3 - 189.47*(Hoja2!A54)^2 + 1349.8*(Hoja2!A54) + 26020</f>
+        <v>41673.109039999632</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
